--- a/public/docs/Other Research Documents.xlsx
+++ b/public/docs/Other Research Documents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\researchgrant\public\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\RGS\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13286A6A-D4E4-4B9D-96ED-F338D2D25B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD85F87-0858-40BA-B3C9-7A038AB60102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{83941991-6E27-4E03-AAE7-EED502A62A61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{83941991-6E27-4E03-AAE7-EED502A62A61}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>BUDGET*</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>Approximate Latest date expected</t>
-  </si>
-  <si>
-    <t>Name of Principal Investigator: …………………………….…………                             Signature: …………….…………………..…….          Date: ……………………………</t>
   </si>
   <si>
     <r>
@@ -719,14 +716,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -736,24 +727,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -764,47 +737,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -814,36 +760,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,46 +773,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -902,17 +797,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,37 +1227,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5BEFE-2F40-4825-858D-ED12BFCD8133}">
   <dimension ref="B3:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1277,334 +1275,334 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="36" style="17" customWidth="1"/>
-    <col min="5" max="5" width="86.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="82.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.140625" style="3" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="36" style="8" customWidth="1"/>
+    <col min="5" max="5" width="86.44140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="82.44140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.109375" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D1" s="18" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="20" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+    </row>
+    <row r="2" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="21"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="22" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D4" s="52"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D7" s="23" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="D11" s="24" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D8" s="59"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D9" s="59"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D10" s="59"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D12" s="24" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D13" s="24" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D14" s="24" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D15" s="24" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="D16" s="24" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D17" s="24" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D18" s="24" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D19" s="23" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D22" s="24" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D20" s="59"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D21" s="59"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:13" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="26" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.25">
-      <c r="D24" s="30" t="s">
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="D24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="D25" s="33" t="s">
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="D25" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-    </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D26" s="15" t="s">
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="D26" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16" t="s">
+      <c r="E26" s="47"/>
+      <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="1" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1632,608 +1630,609 @@
       <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="60" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="60"/>
+    <col min="1" max="1" width="2.5546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B1" s="58" t="s">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-    </row>
-    <row r="2" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B3" s="66" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+    </row>
+    <row r="2" spans="2:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B3" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="38"/>
-    </row>
-    <row r="4" spans="2:19" s="62" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40">
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="74"/>
+    </row>
+    <row r="4" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="71"/>
+      <c r="C4" s="16">
         <v>42353</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="16">
         <v>42020</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="16">
         <v>42051</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="41"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="43" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="48"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="52"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="43" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="64"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="52"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="52"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="43">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="64"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="63">
         <v>3</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="52"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="52"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="43"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="52"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="52"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="43"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="52"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="52"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="43"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="52"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="52"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="43"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="52"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="52"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="43"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="52"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="52"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B21" s="43"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="52"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B22" s="49"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="52"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B23" s="43"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="52"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="52"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B25" s="43"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="52"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="52"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B27" s="43"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="52"/>
-    </row>
-    <row r="28" spans="2:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="57"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B29" s="61" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="64"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="63"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="26"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="64"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="63"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="64"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="26"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="63"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="64"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B17" s="63"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B18" s="64"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B19" s="63"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="26"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B20" s="64"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="26"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B21" s="63"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="26"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B22" s="64"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="26"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B23" s="63"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B24" s="64"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="26"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B25" s="63"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="26"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B26" s="64"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="26"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B27" s="63"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
+    </row>
+    <row r="28" spans="2:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="65"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="30"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B29" s="32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B30" s="63" t="s">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B30" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="I30" s="63" t="s">
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="I30" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="58" t="s">
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="P30:S30"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
@@ -2241,12 +2240,11 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="I30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2256,189 +2254,186 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C719C4-7E2A-4C6E-A76C-6538AFB87F78}">
   <dimension ref="B1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="83.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B1" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+    </row>
+    <row r="2" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="2:5" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:5" s="42" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="70"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="70"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-    </row>
-    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-    </row>
-    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-    </row>
-    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-    </row>
-    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="73" t="s">
+    <row r="5" spans="2:5" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+    </row>
+    <row r="6" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="36"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="36"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+    </row>
+    <row r="17" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+    </row>
+    <row r="19" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-    </row>
-    <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+    </row>
+    <row r="23" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="P23:S23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/docs/Other Research Documents.xlsx
+++ b/public/docs/Other Research Documents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\RGS\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD85F87-0858-40BA-B3C9-7A038AB60102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CED7E73-628F-4197-808F-22928DD8315D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{83941991-6E27-4E03-AAE7-EED502A62A61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83941991-6E27-4E03-AAE7-EED502A62A61}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>BUDGET*</t>
   </si>
@@ -134,15 +133,6 @@
     <t>* please submit both hard and soft copies</t>
   </si>
   <si>
-    <t>Name of Principal Investigator: ……………………………………………………………………………………………….</t>
-  </si>
-  <si>
-    <t>Signature: ………………………………………………………………………………</t>
-  </si>
-  <si>
-    <t>Date: ………………………………..………….</t>
-  </si>
-  <si>
     <t>Activity Plan*</t>
   </si>
   <si>
@@ -156,15 +146,6 @@
   </si>
   <si>
     <t>2. (e.g. please delete) Carrying out experiment</t>
-  </si>
-  <si>
-    <t>Name of Principal Investigator: …………………………….…………</t>
-  </si>
-  <si>
-    <t>Signature: …………….…………………..…….</t>
-  </si>
-  <si>
-    <t>Date: ……………………………</t>
   </si>
   <si>
     <t>Summary of Significant Deliverables Expected*</t>
@@ -716,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -736,9 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -759,9 +737,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -799,27 +774,22 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -868,36 +838,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,7 +874,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,37 +1191,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5BEFE-2F40-4825-858D-ED12BFCD8133}">
   <dimension ref="B3:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="B3" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1271,16 +1235,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6DC499-0EE5-40AB-8DED-597E890B9CA9}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="36" style="8" customWidth="1"/>
-    <col min="5" max="5" width="86.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="82.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="36" style="7" customWidth="1"/>
+    <col min="5" max="5" width="86.44140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="82.44140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.5546875" style="1" customWidth="1"/>
@@ -1289,15 +1253,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
       <c r="D2" s="2"/>
@@ -1309,24 +1273,24 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="52"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
@@ -1341,25 +1305,25 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="4"/>
@@ -1367,248 +1331,238 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D8" s="59"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D9" s="59"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D10" s="59"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.3">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.3">
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D20" s="59"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D21" s="59"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:13" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="12"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.3">
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-    </row>
-    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D25" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="D26" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="48"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="G24:J24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="D3:D4"/>
@@ -1626,614 +1580,596 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA1CCFA-F83F-486A-9BD4-60DF5F61710D}">
   <dimension ref="B1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="55.44140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="31"/>
+    <col min="1" max="1" width="2.5546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="55.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B1" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
+      <c r="B1" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
     </row>
     <row r="2" spans="2:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="68"/>
+    </row>
+    <row r="4" spans="2:19" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="65"/>
+      <c r="C4" s="14">
+        <v>42353</v>
+      </c>
+      <c r="D4" s="14">
+        <v>42020</v>
+      </c>
+      <c r="E4" s="14">
+        <v>42051</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="15"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="61"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="24"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="74"/>
-    </row>
-    <row r="4" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="71"/>
-      <c r="C4" s="16">
-        <v>42353</v>
-      </c>
-      <c r="D4" s="16">
-        <v>42020</v>
-      </c>
-      <c r="E4" s="16">
-        <v>42051</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="23"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="64"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="26"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B7" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="24"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B8" s="64"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="26"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="24"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="63">
+      <c r="B9" s="60">
         <v>3</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B10" s="64"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="26"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="24"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="63"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="26"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="24"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="64"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="26"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="24"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B13" s="63"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="26"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="24"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B14" s="64"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="26"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="24"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B15" s="63"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B16" s="64"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="26"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="24"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B17" s="63"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="26"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B18" s="64"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="26"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="24"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B19" s="63"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="26"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="24"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B20" s="64"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="26"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="24"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B21" s="63"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="26"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="24"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B22" s="64"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="26"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="24"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B23" s="63"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="26"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="24"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B24" s="64"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="26"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="24"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B25" s="63"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="26"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="24"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B26" s="64"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="26"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="24"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B27" s="63"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="26"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="2:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="65"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="30"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B29" s="32" t="s">
-        <v>30</v>
-      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="28"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B30" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="I30" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="P30:S30"/>
+  <mergeCells count="15">
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
@@ -2243,8 +2179,12 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2254,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C719C4-7E2A-4C6E-A76C-6538AFB87F78}">
   <dimension ref="B1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2267,167 +2207,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="B4" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="36"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="36"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/public/docs/Other Research Documents.xlsx
+++ b/public/docs/Other Research Documents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\RGS\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CED7E73-628F-4197-808F-22928DD8315D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CE8BC1-BE62-4BE5-90E5-561369E1F72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83941991-6E27-4E03-AAE7-EED502A62A61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{83941991-6E27-4E03-AAE7-EED502A62A61}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>BUDGET*</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Available period:………………………………………………………..</t>
-  </si>
-  <si>
-    <t>* please submit both hard and soft copies</t>
   </si>
   <si>
     <t>Activity Plan*</t>
@@ -784,12 +781,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -826,18 +833,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,22 +863,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,37 +1188,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B5BEFE-2F40-4825-858D-ED12BFCD8133}">
   <dimension ref="B3:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1253,15 +1250,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
       <c r="D2" s="2"/>
@@ -1273,24 +1270,24 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="49"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
@@ -1331,7 +1328,7 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="9"/>
@@ -1342,7 +1339,7 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D8" s="56"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
@@ -1351,7 +1348,7 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D9" s="56"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
@@ -1360,7 +1357,7 @@
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D10" s="56"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
@@ -1469,7 +1466,7 @@
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="60" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="9"/>
@@ -1480,7 +1477,7 @@
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D20" s="56"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
@@ -1489,7 +1486,7 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="D21" s="56"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
@@ -1512,14 +1509,14 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="11"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1535,12 +1532,12 @@
       <c r="F24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="59"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D25"/>
@@ -1557,8 +1554,8 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1593,54 +1590,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B1" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
+      <c r="B1" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
     </row>
     <row r="2" spans="2:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="68"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="71"/>
     </row>
     <row r="4" spans="2:19" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="65"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="14">
         <v>42353</v>
       </c>
@@ -1666,8 +1663,8 @@
       <c r="S4" s="15"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B5" s="60" t="s">
-        <v>34</v>
+      <c r="B5" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
@@ -1688,7 +1685,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B6" s="61"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="22"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -1708,8 +1705,8 @@
       <c r="S6" s="24"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B7" s="60" t="s">
-        <v>35</v>
+      <c r="B7" s="62" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
@@ -1730,7 +1727,7 @@
       <c r="S7" s="24"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B8" s="61"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="22"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -1750,7 +1747,7 @@
       <c r="S8" s="24"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="60">
+      <c r="B9" s="62">
         <v>3</v>
       </c>
       <c r="C9" s="22"/>
@@ -1772,7 +1769,7 @@
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B10" s="61"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -1792,7 +1789,7 @@
       <c r="S10" s="24"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B11" s="60"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -1812,7 +1809,7 @@
       <c r="S11" s="24"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B12" s="61"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="22"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -1832,7 +1829,7 @@
       <c r="S12" s="24"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B13" s="60"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -1852,7 +1849,7 @@
       <c r="S13" s="24"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B14" s="61"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -1872,7 +1869,7 @@
       <c r="S14" s="24"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B15" s="60"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -1892,7 +1889,7 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B16" s="61"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -1912,7 +1909,7 @@
       <c r="S16" s="24"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B17" s="60"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="22"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -1932,7 +1929,7 @@
       <c r="S17" s="24"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B18" s="61"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -1952,7 +1949,7 @@
       <c r="S18" s="24"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B19" s="60"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -1972,7 +1969,7 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B20" s="61"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="22"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -1992,7 +1989,7 @@
       <c r="S20" s="24"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B21" s="60"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="22"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -2012,7 +2009,7 @@
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B22" s="61"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -2032,7 +2029,7 @@
       <c r="S22" s="24"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B23" s="60"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -2052,7 +2049,7 @@
       <c r="S23" s="24"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B24" s="61"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="22"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -2072,7 +2069,7 @@
       <c r="S24" s="24"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B25" s="60"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -2092,7 +2089,7 @@
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B26" s="61"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="22"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -2112,7 +2109,7 @@
       <c r="S26" s="24"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B27" s="60"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="22"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -2132,7 +2129,7 @@
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="2:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="69"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
@@ -2170,21 +2167,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2194,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C719C4-7E2A-4C6E-A76C-6538AFB87F78}">
   <dimension ref="B1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2207,36 +2204,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+    </row>
+    <row r="2" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-    </row>
-    <row r="2" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="2:5" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:5" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2335,13 +2332,11 @@
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
+    <row r="21" spans="2:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="37"/>
@@ -2364,16 +2359,15 @@
       <c r="M23" s="39"/>
       <c r="N23" s="39"/>
       <c r="O23" s="39"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="P23:S23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
